--- a/biology/Médecine/Jakob_Engelin/Jakob_Engelin.xlsx
+++ b/biology/Médecine/Jakob_Engelin/Jakob_Engelin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jakob Engelin est un médecin allemand du XIVe siècle. 
 Il est aussi identifié sous les noms de : Jacobus Engelhart, Jacobus Angelus, Jacobus Angeli, Jacobus de Ulma, Jakob Egeli, Jakob Engellin, Jacob Enngelin, Angelin Jacques, Meister Jakob von Ulm.
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jakob Engelin est probablement né vers 1365 et mort en 1409. Mais l’on possède peu de sources sur sa biographie. Fils de  E. Engelhard, un pharmacien, il aurait appartenu à une famille bourgeoise si l’on se base sur le livre des Trésors de la ville d’Ulm. Depuis 1382, il possède une licence en médecine de l’université de Paris et étudiera à Vienne où il deviendra le médecin personnel du duc Léopold d’Autriche jusqu’en 1406, date à laquelle, il retourne à Ulm et deviendra le médecin attitré de la ville. 
 </t>
